--- a/Objective.xlsx
+++ b/Objective.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\New folder\DA\Projects\RetailAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a12cf8a7a04b943/Desktop/New folder/DA/Projects/RetailAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048DD79D857A05BDE58E7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F9260D03-4885-4E25-8C44-CA307D210FE2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F042D342-D444-4E3D-B779-D3E0E259D33E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>The retail company  has observed stagnant growth and declining customer engagement metrice over the past quarters. Initial assessments indicate potential issues in product performance variability, ineffective customer segmentation, and lack of insights into customer purchasing behavior. The company seeks to leverage it sales transaction data, customer profiles, and product inventory information to address the following key business problems:</a:t>
+            <a:t>The retail company has observed stagnant growth and declining customer engagement metric over the past quarters. Initial assessments indicate potential issues in product performance variability, ineffective customer segmentation, and lack of insights into customer purchasing behavior. The company seeks to leverage it's sales transaction data, customer profiles, and product inventory information to address the following key business problems:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -166,7 +166,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>Identifying whic products are performing well in terms of sales and which are not. This insight is crucial for inventory management and marketing focus.</a:t>
+            <a:t>Identifying which products are performing well in terms of sales and which are not. This insight is crucial for inventory management and marketing focus.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -176,17 +176,17 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>The company lacks a clear understanding of its customer base segmentation. Effective segmentation is essesntial for targeted marketing and enhancing customer satisfaction.</a:t>
+            <a:t>The company lacks a clear understanding of its customer base segmentation. Effective segmentation is essential for targeted marketing and enhancing customer satisfaction.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" u="sng" baseline="0"/>
-            <a:t>Customer Behaviour Analysis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>: Understanding patterns in customer behaviour, including repeat purchases and loyalty indicators, is critical for tailoring customer engagement stratergies and improving retention rates.</a:t>
+            <a:t>Customer Behavior Analysis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>: Understanding patterns in customer behavior, including repeat purchases and loyalty indicators, is critical for tailoring customer engagement strategies and improving retention rates.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -213,7 +213,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>To segment cutomers based on their purchasing behaviour for targeted marketing campaigns. Create Customer segments-</a:t>
+            <a:t>To segment customers based on their purchasing behavior for targeted marketing campaigns. Create Customer segments-</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -241,7 +241,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t> customer behaviour for insights on repeat purchases and loyalty, informing customer retention strategies.</a:t>
+            <a:t> customer behavior for insights on repeat purchases and loyalty, informing customer retention strategies.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600"/>
         </a:p>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
